--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_9_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_9_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.08000000000033</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009957485531189025</v>
+        <v>6.05073694323055e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0009957485531189025</v>
+        <v>6.05073694323055e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.99985399697329</v>
+        <v>58.07070347889538</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[17.74974944732412, 72.24995854662245]</t>
+          <t>[31.31375803263937, 84.8276489251514]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001760506779682425</v>
+        <v>7.210756288578146e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001760506779682425</v>
+        <v>7.210756288578146e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.46544762419704</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.7232895999255771, 2.207605648468503]</t>
+          <t>[0.9748685912040411, 2.157289850212811]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0002505552939515709</v>
+        <v>2.990417665493794e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0002505552939515709</v>
+        <v>2.990417665493794e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>62.25684291064055</v>
+        <v>68.32894737885343</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.31466357941346, 78.19902224186764]</t>
+          <t>[51.34761870469515, 85.3102760530117]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.415585757617691e-10</v>
+        <v>2.43157494139723e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>5.415585757617691e-10</v>
+        <v>2.43157494139723e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>18.463743743744</v>
+        <v>18.46846846846877</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.61945945945967</v>
+        <v>16.15375375375402</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.30802802802832</v>
+        <v>20.78318318318352</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.08000000000033</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.919715546338523e-06</v>
+        <v>0.000304559793778636</v>
       </c>
       <c r="I3" t="n">
-        <v>6.919715546338523e-06</v>
+        <v>0.000304559793778636</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>63.71397239738344</v>
+        <v>47.89697221210316</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[36.51861795619229, 90.9093268385746]</t>
+          <t>[22.360917332098694, 73.43302709210762]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.332432332607937e-05</v>
+        <v>0.000462218280720128</v>
       </c>
       <c r="O3" t="n">
-        <v>2.332432332607937e-05</v>
+        <v>0.000462218280720128</v>
       </c>
       <c r="P3" t="n">
-        <v>1.402552876377425</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8993948938205012, 1.9057108589343486]</t>
+          <t>[0.9874475407679624, 2.320816194543812]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.162635950402446e-06</v>
+        <v>9.283516661628965e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>1.162635950402446e-06</v>
+        <v>9.283516661628965e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>68.52949235708273</v>
+        <v>63.23964304542954</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.29635298367373, 84.76263173049173]</t>
+          <t>[47.59079426912699, 78.88849182173209]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.469136337727832e-11</v>
+        <v>2.162963141927321e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>6.469136337727832e-11</v>
+        <v>2.162963141927321e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>18.70478478478504</v>
+        <v>18.12372372372402</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.77645645645669</v>
+        <v>15.51351351351377</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.6331131131134</v>
+        <v>20.73393393393428</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.08000000000033</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002645486779172534</v>
+        <v>0.0001061576332401781</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002645486779172534</v>
+        <v>0.0001061576332401781</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>44.64451596876481</v>
+        <v>50.4990393350653</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[22.947581357594842, 66.34145057993479]</t>
+          <t>[23.222127406782008, 77.77595126334859]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0001484425700213343</v>
+        <v>0.0005362379002795681</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0001484425700213343</v>
+        <v>0.0005362379002795681</v>
       </c>
       <c r="P4" t="n">
-        <v>1.641552918091963</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9874475407679615, 2.295658295415965]</t>
+          <t>[0.5849211547224238, 1.8428161111147352]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.667586701343154e-06</v>
+        <v>0.0003306931306712446</v>
       </c>
       <c r="S4" t="n">
-        <v>7.667586701343154e-06</v>
+        <v>0.0003306931306712446</v>
       </c>
       <c r="T4" t="n">
-        <v>63.91772943926823</v>
+        <v>64.27061226924053</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.65590163570748, 78.17955724282898]</t>
+          <t>[49.03583722023629, 79.50538731824477]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.161870599730719e-11</v>
+        <v>6.59525767332525e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.161870599730719e-11</v>
+        <v>6.59525767332525e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>17.78882882882907</v>
+        <v>19.84744744744777</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.28200200200221</v>
+        <v>17.38498498498526</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.29565565565593</v>
+        <v>22.30990990991028</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.08000000000033</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>9.5521539557053e-06</v>
+        <v>6.661589142575863e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>9.5521539557053e-06</v>
+        <v>6.661589142575863e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>62.66073006375013</v>
+        <v>63.35104491000297</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[34.315532431838875, 91.00592769566138]</t>
+          <t>[34.20698428813414, 92.4951055318718]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.551564050154667e-05</v>
+        <v>7.053171709570094e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>5.551564050154667e-05</v>
+        <v>7.053171709570094e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>1.289342330302117</v>
+        <v>1.490605523324888</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.7861843477451922, 1.7925003128590413]</t>
+          <t>[0.8868159442565782, 2.0943951023931975]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.369478445205189e-06</v>
+        <v>1.008677190750262e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>5.369478445205189e-06</v>
+        <v>1.008677190750262e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>78.78125555918169</v>
+        <v>68.69178241630826</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[62.546191074934754, 95.01632004342862]</t>
+          <t>[50.07356656728706, 87.30999826532945]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.06048503312195e-12</v>
+        <v>2.349141103863417e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.06048503312195e-12</v>
+        <v>2.349141103863417e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>19.13865865865892</v>
+        <v>18.76396396396427</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.21033033033056</v>
+        <v>16.40000000000026</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.06698698698728</v>
+        <v>21.12792792792828</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.08000000000033</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001965404874002319</v>
+        <v>1.324943471159301e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001965404874002319</v>
+        <v>1.324943471159301e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.68134426928931</v>
+        <v>57.21879793416412</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[12.309347081631614, 79.05334145694701]</t>
+          <t>[30.22380596528069, 84.21378990304756]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.008397042557172441</v>
+        <v>9.995088601266744e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008397042557172441</v>
+        <v>9.995088601266744e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7987632973091161</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.15723686954903826, 1.440289725069194]</t>
+          <t>[0.5597632555945777, 1.5912371198362711]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.01582552811517934</v>
+        <v>0.0001244302187475288</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01582552811517934</v>
+        <v>0.0001244302187475288</v>
       </c>
       <c r="T6" t="n">
-        <v>57.98995017663011</v>
+        <v>59.05883754966263</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.84273777469275, 75.13716257856747]</t>
+          <t>[43.912825803372996, 74.20484929595227]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.940837979219623e-08</v>
+        <v>5.635036881557198e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.940837979219623e-08</v>
+        <v>5.635036881557198e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>21.01877877877907</v>
+        <v>20.38918918918953</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.56016016016041</v>
+        <v>18.36996996997027</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.47739739739772</v>
+        <v>22.40840840840878</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.08000000000033</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005195025287579647</v>
+        <v>0.01189924204556492</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005195025287579647</v>
+        <v>0.01189924204556492</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>44.43976656477684</v>
+        <v>37.79035396836994</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[13.78000231331734, 75.09953081623634]</t>
+          <t>[5.413561756656378, 70.1671461800835]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.005461714700292442</v>
+        <v>0.02317089288987062</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005461714700292442</v>
+        <v>0.02317089288987062</v>
       </c>
       <c r="P7" t="n">
-        <v>1.691868716347656</v>
+        <v>0.7358685494895019</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.7861843477451922, 2.5975530849501203]</t>
+          <t>[-0.018868424345884094, 1.4906055233248878]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0004842430412514975</v>
+        <v>0.05575518630720189</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0004842430412514975</v>
+        <v>0.05575518630720189</v>
       </c>
       <c r="T7" t="n">
-        <v>70.99299464720836</v>
+        <v>61.40480430099272</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[52.588022626740724, 89.397966667676]</t>
+          <t>[44.295349923972196, 78.51425867801325]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.492784170892719e-10</v>
+        <v>4.675551723565263e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>7.492784170892719e-10</v>
+        <v>4.675551723565263e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>17.59599599599623</v>
+        <v>21.71891891891928</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.12500500500519</v>
+        <v>18.76396396396427</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.06698698698727</v>
+        <v>24.67387387387428</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.70000000000027</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005723779107664528</v>
+        <v>2.821498790750443e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005723779107664528</v>
+        <v>2.821498790750443e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>49.3151150546435</v>
+        <v>64.70796341730717</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[11.17791134046999, 87.45231876881701]</t>
+          <t>[29.99790565497122, 99.41802117964312]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.01242603171660184</v>
+        <v>0.0004956632778396752</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01242603171660184</v>
+        <v>0.0004956632778396752</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7610264486173479</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.08176317216550011, 1.4402897250691957]</t>
+          <t>[0.24528951649650033, 1.2516054816103477]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.02894115723803203</v>
+        <v>0.004437961677769886</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02894115723803203</v>
+        <v>0.004437961677769886</v>
       </c>
       <c r="T8" t="n">
-        <v>70.18574073109298</v>
+        <v>67.64805933484189</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.5720592691889, 90.79942219299706]</t>
+          <t>[49.83030889323723, 85.46580977644655]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.657335557680994e-08</v>
+        <v>1.131118976260836e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.657335557680994e-08</v>
+        <v>1.131118976260836e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>20.82942942942966</v>
+        <v>21.02662662662689</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.26726726726747</v>
+        <v>19.11511511511535</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.39159159159185</v>
+        <v>22.93813813813842</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.70000000000027</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002856689620212127</v>
+        <v>0.00458621399561121</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002856689620212127</v>
+        <v>0.00458621399561121</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>49.93917739219187</v>
+        <v>43.06300640838877</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[13.43519517932495, 86.44315960505878]</t>
+          <t>[10.523371465597734, 75.60264135117981]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.008432635366380614</v>
+        <v>0.01063867467344215</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008432635366380614</v>
+        <v>0.01063867467344215</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9874475407679633</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 1.7044476659115801]</t>
+          <t>[0.3459211130078854, 1.9560266571900398]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.008036443728711928</v>
+        <v>0.006076564507542459</v>
       </c>
       <c r="S9" t="n">
-        <v>0.008036443728711928</v>
+        <v>0.006076564507542459</v>
       </c>
       <c r="T9" t="n">
-        <v>69.24410951741825</v>
+        <v>71.43759914686389</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.84138409178867, 88.64683494304784]</t>
+          <t>[53.89453409246363, 88.98066420126415]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.368730793264831e-09</v>
+        <v>1.756761403015616e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>5.368730793264831e-09</v>
+        <v>1.756761403015616e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>19.9753753753756</v>
+        <v>19.49741741741766</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.27087087087106</v>
+        <v>16.43899899899921</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.67987987988014</v>
+        <v>22.55583583583611</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.70000000000027</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001194478638113505</v>
+        <v>8.038386067332759e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001194478638113505</v>
+        <v>8.038386067332759e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>52.13491356930412</v>
+        <v>53.70505883731979</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[22.137667677451645, 82.13215946115659]</t>
+          <t>[28.420968153355133, 78.98914952128445]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001059943079357861</v>
+        <v>9.713221821816553e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001059943079357861</v>
+        <v>9.713221821816553e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9622896416401163</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 1.5283423720166551]</t>
+          <t>[0.6478159025420389, 1.6541318676558863]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.001326070636130439</v>
+        <v>3.358797948682657e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001326070636130439</v>
+        <v>3.358797948682657e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>56.86103617456602</v>
+        <v>57.22369511901586</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.14012899444782, 72.58194335468423]</t>
+          <t>[43.472488629277336, 70.97490160875438]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.860094244245715e-09</v>
+        <v>9.665335198860703e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>3.860094244245715e-09</v>
+        <v>9.665335198860703e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>20.0702702702705</v>
+        <v>19.49741741741766</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.93513513513534</v>
+        <v>17.58590590590612</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.20540540540566</v>
+        <v>21.40892892892919</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.70000000000027</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006345611256593942</v>
+        <v>0.02239038194885656</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006345611256593942</v>
+        <v>0.02239038194885656</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>37.07291156121391</v>
+        <v>37.70962419135108</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[8.242157824845492, 65.90366529758234]</t>
+          <t>[4.729006043150065, 70.6902423395521]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01289035469704269</v>
+        <v>0.02596213138206882</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01289035469704269</v>
+        <v>0.02596213138206882</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9748685912040393</v>
+        <v>1.264184431174272</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.20755266780473036, 1.7421845146033483]</t>
+          <t>[0.081763172165501, 2.446605690183042]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01393390861835631</v>
+        <v>0.03668453296815799</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01393390861835631</v>
+        <v>0.03668453296815799</v>
       </c>
       <c r="T11" t="n">
-        <v>63.87431737950322</v>
+        <v>70.07440124560506</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.23777074215161, 79.51086401685484]</t>
+          <t>[51.448455520980644, 88.70034697022948]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.612050493093875e-10</v>
+        <v>1.430398466339966e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.612050493093875e-10</v>
+        <v>1.430398466339966e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>20.02282282282305</v>
+        <v>19.06732732732756</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.12852852852872</v>
+        <v>14.57527527527546</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.91711711711737</v>
+        <v>23.55937937937967</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.70000000000027</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003611633568333716</v>
+        <v>8.401675508407092e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003611633568333716</v>
+        <v>8.401675508407092e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>40.25320386917672</v>
+        <v>57.89314637332472</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[10.130840893104718, 70.37556684524871]</t>
+          <t>[24.16041221653896, 91.62588053011048]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.009951022642786356</v>
+        <v>0.001205383077964806</v>
       </c>
       <c r="O12" t="n">
-        <v>0.009951022642786356</v>
+        <v>0.001205383077964806</v>
       </c>
       <c r="P12" t="n">
-        <v>1.050342288587578</v>
+        <v>0.7610264486173479</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.30818426431611545, 1.7925003128590413]</t>
+          <t>[0.24528951649649944, 1.2767633807381964]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.006565701923808565</v>
+        <v>0.00473678447755721</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006565701923808565</v>
+        <v>0.00473678447755721</v>
       </c>
       <c r="T12" t="n">
-        <v>65.9276946481549</v>
+        <v>61.5750534536878</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.94906684847852, 81.90632244783127]</t>
+          <t>[44.48838468100131, 78.6617222263743]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.224356172002672e-10</v>
+        <v>4.22594093052453e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>1.224356172002672e-10</v>
+        <v>4.22594093052453e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>19.73813813813836</v>
+        <v>20.97883883883909</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.93873873873893</v>
+        <v>19.01953953953976</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.53753753753779</v>
+        <v>22.93813813813842</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_9_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_9_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.60000000000041</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.05073694323055e-05</v>
+        <v>0.005058613803550438</v>
       </c>
       <c r="I2" t="n">
-        <v>6.05073694323055e-05</v>
+        <v>0.005058613803550438</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>58.07070347889538</v>
+        <v>42.85476207720299</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[31.31375803263937, 84.8276489251514]</t>
+          <t>[15.293542525252832, 70.41598162915315]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>7.210756288578146e-05</v>
+        <v>0.003052006353771564</v>
       </c>
       <c r="O2" t="n">
-        <v>7.210756288578146e-05</v>
+        <v>0.003052006353771564</v>
       </c>
       <c r="P2" t="n">
-        <v>1.566079220708426</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9748685912040411, 2.157289850212811]</t>
+          <t>[0.6352369529781159, 2.4969214884387343]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.990417665493794e-06</v>
+        <v>0.001469654025587186</v>
       </c>
       <c r="S2" t="n">
-        <v>2.990417665493794e-06</v>
+        <v>0.001469654025587186</v>
       </c>
       <c r="T2" t="n">
-        <v>68.32894737885343</v>
+        <v>71.58094597921088</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.34761870469515, 85.3102760530117]</t>
+          <t>[53.77528229364913, 89.38660966477264]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.43157494139723e-10</v>
+        <v>2.492006601073626e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>2.43157494139723e-10</v>
+        <v>2.492006601073626e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>18.46846846846877</v>
+        <v>18.29579579579607</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.15375375375402</v>
+        <v>14.68542542542565</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.78318318318352</v>
+        <v>21.9061661661665</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.60000000000041</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000304559793778636</v>
+        <v>6.607924492518791e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000304559793778636</v>
+        <v>6.607924492518791e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>47.89697221210316</v>
+        <v>49.32178913966709</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[22.360917332098694, 73.43302709210762]</t>
+          <t>[26.168856613090142, 72.47472166624404]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.000462218280720128</v>
+        <v>9.334270051253313e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.000462218280720128</v>
+        <v>9.334270051253313e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.654131867655887</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9874475407679624, 2.320816194543812]</t>
+          <t>[0.9119738433844242, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>9.283516661628965e-06</v>
+        <v>6.142821106225327e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>9.283516661628965e-06</v>
+        <v>6.142821106225327e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>63.23964304542954</v>
+        <v>62.74108255095082</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.59079426912699, 78.88849182173209]</t>
+          <t>[48.31576588558181, 77.16639921631983]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.162963141927321e-10</v>
+        <v>2.773092866448224e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.162963141927321e-10</v>
+        <v>2.773092866448224e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>18.12372372372402</v>
+        <v>18.53973973974002</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.51351351351377</v>
+        <v>16.24666666666691</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.73393393393428</v>
+        <v>20.83281281281313</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.60000000000041</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001061576332401781</v>
+        <v>0.0006124331494222757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001061576332401781</v>
+        <v>0.0006124331494222757</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>50.4990393350653</v>
+        <v>44.11288683530907</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[23.222127406782008, 77.77595126334859]</t>
+          <t>[18.720564758615026, 69.50520891200311]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0005362379002795681</v>
+        <v>0.001064582443782713</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0005362379002795681</v>
+        <v>0.001064582443782713</v>
       </c>
       <c r="P4" t="n">
-        <v>1.213868632918579</v>
+        <v>1.46544762419704</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5849211547224238, 1.8428161111147352]</t>
+          <t>[0.77360539818127, 2.15728985021281]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0003306931306712446</v>
+        <v>0.0001008694018973522</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0003306931306712446</v>
+        <v>0.0001008694018973522</v>
       </c>
       <c r="T4" t="n">
-        <v>64.27061226924053</v>
+        <v>66.56272379981901</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.03583722023629, 79.50538731824477]</t>
+          <t>[51.46035539592778, 81.66509220371024]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.59525767332525e-11</v>
+        <v>1.891553580435357e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>6.59525767332525e-11</v>
+        <v>1.891553580435357e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>19.84744744744777</v>
+        <v>18.68610610610639</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.38498498498526</v>
+        <v>16.00272272272297</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.30990990991028</v>
+        <v>21.36948948948982</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.60000000000041</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.661589142575863e-05</v>
+        <v>0.0009188730292056801</v>
       </c>
       <c r="I5" t="n">
-        <v>6.661589142575863e-05</v>
+        <v>0.0009188730292056801</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>63.35104491000297</v>
+        <v>47.62755042636793</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[34.20698428813414, 92.4951055318718]</t>
+          <t>[17.324154725817706, 77.93094612691816]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>7.053171709570094e-05</v>
+        <v>0.002776479164718904</v>
       </c>
       <c r="O5" t="n">
-        <v>7.053171709570094e-05</v>
+        <v>0.002776479164718904</v>
       </c>
       <c r="P5" t="n">
-        <v>1.490605523324888</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 2.0943951023931975]</t>
+          <t>[0.5849211547224229, 2.0692372032653505]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.008677190750262e-05</v>
+        <v>0.0007859377114280974</v>
       </c>
       <c r="S5" t="n">
-        <v>1.008677190750262e-05</v>
+        <v>0.0007859377114280974</v>
       </c>
       <c r="T5" t="n">
-        <v>68.69178241630826</v>
+        <v>73.00831095542941</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.07356656728706, 87.30999826532945]</t>
+          <t>[56.16266731586519, 89.85395459499362]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.349141103863417e-09</v>
+        <v>3.070299570140378e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.349141103863417e-09</v>
+        <v>3.070299570140378e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>18.76396396396427</v>
+        <v>19.22278278278307</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.40000000000026</v>
+        <v>16.34424424424449</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.12792792792828</v>
+        <v>22.10132132132166</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.60000000000041</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.324943471159301e-05</v>
+        <v>0.003597079359219491</v>
       </c>
       <c r="I6" t="n">
-        <v>1.324943471159301e-05</v>
+        <v>0.003597079359219491</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>57.21879793416412</v>
+        <v>38.54221755704327</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[30.22380596528069, 84.21378990304756]</t>
+          <t>[10.967664530179746, 66.11677058390678]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>9.995088601266744e-05</v>
+        <v>0.007208118159133692</v>
       </c>
       <c r="O6" t="n">
-        <v>9.995088601266744e-05</v>
+        <v>0.007208118159133692</v>
       </c>
       <c r="P6" t="n">
-        <v>1.075500187715424</v>
+        <v>1.251605481610349</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.5597632555945777, 1.5912371198362711]</t>
+          <t>[0.3962369112635784, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0001244302187475288</v>
+        <v>0.005067689170226819</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001244302187475288</v>
+        <v>0.005067689170226819</v>
       </c>
       <c r="T6" t="n">
-        <v>59.05883754966263</v>
+        <v>62.70911917588049</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.912825803372996, 74.20484929595227]</t>
+          <t>[47.28197368372294, 78.13626466803804]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.635036881557198e-10</v>
+        <v>1.844668862105436e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>5.635036881557198e-10</v>
+        <v>1.844668862105436e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>20.38918918918953</v>
+        <v>19.51551551551581</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.36996996997027</v>
+        <v>16.19787787787812</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.40840840840878</v>
+        <v>22.8331531531535</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.60000000000041</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01189924204556492</v>
+        <v>0.001654004975361056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01189924204556492</v>
+        <v>0.001654004975361056</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>37.79035396836994</v>
+        <v>52.59586315528959</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[5.413561756656378, 70.1671461800835]</t>
+          <t>[16.111358088493347, 89.08036822208582]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.02317089288987062</v>
+        <v>0.005698801911312001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02317089288987062</v>
+        <v>0.005698801911312001</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7358685494895019</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.018868424345884094, 1.4906055233248878]</t>
+          <t>[0.40881586082749966, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.05575518630720189</v>
+        <v>0.002800329867411744</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05575518630720189</v>
+        <v>0.002800329867411744</v>
       </c>
       <c r="T7" t="n">
-        <v>61.40480430099272</v>
+        <v>65.53274807942083</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.295349923972196, 78.51425867801325]</t>
+          <t>[46.023605676235334, 85.04189048260632]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.675551723565263e-09</v>
+        <v>2.271139898368801e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>4.675551723565263e-09</v>
+        <v>2.271139898368801e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>21.71891891891928</v>
+        <v>20.00340340340371</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.76396396396427</v>
+        <v>17.22244244244271</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.67387387387428</v>
+        <v>22.78436436436471</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.87000000000029</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.821498790750443e-05</v>
+        <v>0.0004308828001149401</v>
       </c>
       <c r="I8" t="n">
-        <v>2.821498790750443e-05</v>
+        <v>0.0004308828001149401</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>64.70796341730717</v>
+        <v>59.81320020377007</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[29.99790565497122, 99.41802117964312]</t>
+          <t>[23.078340284438823, 96.54806012310132]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0004956632778396752</v>
+        <v>0.002011645884057334</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0004956632778396752</v>
+        <v>0.002011645884057334</v>
       </c>
       <c r="P8" t="n">
-        <v>0.748447499053424</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.24528951649650033, 1.2516054816103477]</t>
+          <t>[0.4968685077749617, 1.8050792624229652]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.004437961677769886</v>
+        <v>0.0009321125570656008</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004437961677769886</v>
+        <v>0.0009321125570656008</v>
       </c>
       <c r="T8" t="n">
-        <v>67.64805933484189</v>
+        <v>69.37280444397723</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.83030889323723, 85.46580977644655]</t>
+          <t>[49.547769046987284, 89.19783984096718]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.131118976260836e-09</v>
+        <v>8.654186478551651e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.131118976260836e-09</v>
+        <v>8.654186478551651e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>21.02662662662689</v>
+        <v>19.74246246246274</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.11511511511535</v>
+        <v>17.22626626626651</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.93813813813842</v>
+        <v>22.25865865865897</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.87000000000029</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00458621399561121</v>
+        <v>5.587444951160592e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00458621399561121</v>
+        <v>5.587444951160592e-10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>43.06300640838877</v>
+        <v>80.17198765508866</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[10.523371465597734, 75.60264135117981]</t>
+          <t>[55.18262535627444, 105.16134995390287]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01063867467344215</v>
+        <v>6.427104781714377e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01063867467344215</v>
+        <v>6.427104781714377e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.150973885098963</v>
+        <v>1.163552834662886</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 1.9560266571900398]</t>
+          <t>[0.8365001460008861, 1.4906055233248852]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.006076564507542459</v>
+        <v>5.793210355875544e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>0.006076564507542459</v>
+        <v>5.793210355875544e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>71.43759914686389</v>
+        <v>72.85313219765148</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[53.89453409246363, 88.98066420126415]</t>
+          <t>[59.292015601152286, 86.41424879415067]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.756761403015616e-10</v>
+        <v>4.152234112098085e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>1.756761403015616e-10</v>
+        <v>4.152234112098085e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>19.49741741741766</v>
+        <v>19.69407407407435</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.43899899899921</v>
+        <v>18.43597597597624</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.55583583583611</v>
+        <v>20.95217217217247</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.87000000000029</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.038386067332759e-06</v>
+        <v>4.67846095212332e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>8.038386067332759e-06</v>
+        <v>4.67846095212332e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>53.70505883731979</v>
+        <v>51.18854289875068</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[28.420968153355133, 78.98914952128445]</t>
+          <t>[23.435963223803583, 78.94112257369778]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>9.713221821816553e-05</v>
+        <v>0.0005591979240597844</v>
       </c>
       <c r="O10" t="n">
-        <v>9.713221821816553e-05</v>
+        <v>0.0005591979240597844</v>
       </c>
       <c r="P10" t="n">
-        <v>1.150973885098963</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.6478159025420389, 1.6541318676558863]</t>
+          <t>[0.4842895582110396, 1.5912371198362711]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.358797948682657e-05</v>
+        <v>0.0004640924917651557</v>
       </c>
       <c r="S10" t="n">
-        <v>3.358797948682657e-05</v>
+        <v>0.0004640924917651557</v>
       </c>
       <c r="T10" t="n">
-        <v>57.22369511901586</v>
+        <v>59.14875144837595</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.472488629277336, 70.97490160875438]</t>
+          <t>[44.583231280816356, 73.71427161593556]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.665335198860703e-11</v>
+        <v>1.894659984458258e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>9.665335198860703e-11</v>
+        <v>1.894659984458258e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>19.49741741741766</v>
+        <v>20.17795795795824</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.58590590590612</v>
+        <v>18.04886886886912</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.40892892892919</v>
+        <v>22.30704704704736</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.87000000000029</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02239038194885656</v>
+        <v>0.1210035497897207</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02239038194885656</v>
+        <v>0.1210035497897207</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>37.70962419135108</v>
+        <v>25.65758212788336</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[4.729006043150065, 70.6902423395521]</t>
+          <t>[-6.688068151325805, 58.003232407092526]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.02596213138206882</v>
+        <v>0.1171201293983073</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02596213138206882</v>
+        <v>0.1171201293983073</v>
       </c>
       <c r="P11" t="n">
-        <v>1.264184431174272</v>
+        <v>0.9245527929483472</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.081763172165501, 2.446605690183042]</t>
+          <t>[-2.1698687997767347, 4.018974385673429]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.03668453296815799</v>
+        <v>0.5503440672047066</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03668453296815799</v>
+        <v>0.5503440672047066</v>
       </c>
       <c r="T11" t="n">
-        <v>70.07440124560506</v>
+        <v>61.28882665613598</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[51.448455520980644, 88.70034697022948]</t>
+          <t>[43.94493235530948, 78.63272095696249]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.430398466339966e-09</v>
+        <v>6.828517973289649e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.430398466339966e-09</v>
+        <v>6.828517973289649e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>19.06732732732756</v>
+        <v>20.61345345345374</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.57527527527546</v>
+        <v>8.709909909910031</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.55937937937967</v>
+        <v>32.51699699699746</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.87000000000029</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>8.401675508407092e-05</v>
+        <v>0.003364106134045697</v>
       </c>
       <c r="I12" t="n">
-        <v>8.401675508407092e-05</v>
+        <v>0.003364106134045697</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>57.89314637332472</v>
+        <v>42.53722876062287</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[24.16041221653896, 91.62588053011048]</t>
+          <t>[9.762934026797623, 75.31152349444812]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001205383077964806</v>
+        <v>0.01212655322769129</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001205383077964806</v>
+        <v>0.01212655322769129</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7610264486173479</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.24528951649649944, 1.2767633807381964]</t>
+          <t>[0.32076321388003937, 1.7799213632951174]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.00473678447755721</v>
+        <v>0.00575880009572094</v>
       </c>
       <c r="S12" t="n">
-        <v>0.00473678447755721</v>
+        <v>0.00575880009572094</v>
       </c>
       <c r="T12" t="n">
-        <v>61.5750534536878</v>
+        <v>63.56665129976025</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[44.48838468100131, 78.6617222263743]</t>
+          <t>[46.72892957038172, 80.40437302913878]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.22594093052453e-09</v>
+        <v>1.308636532471041e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>4.22594093052453e-09</v>
+        <v>1.308636532471041e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>20.97883883883909</v>
+        <v>20.12956956956985</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.01953953953976</v>
+        <v>17.32304304304329</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.93813813813842</v>
+        <v>22.93609609609642</v>
       </c>
     </row>
   </sheetData>
